--- a/template.xlsx
+++ b/template.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="review" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="text" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="QA" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
   <si>
     <t xml:space="preserve">Social</t>
   </si>
@@ -44,85 +45,366 @@
     <t xml:space="preserve">Level of Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">* Micro
-The text proposes a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess the knowledge, attitudes, and behaviors of individuals within the PROBONO Living Labs. The survey aims to identify gaps in public understanding of climate issues and misconceptions about energy-saving behaviors, in order to inform targeted interventions and communications for behavior change. The survey also aims to assess climate change literacy and address the phenomenon of pluralistic ignorance, where individuals underestimate the support for climate policies and actions, which can hinder behavior change and policy-making efforts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Macro
-* The proposed social innovation aims to assess and address cognitive biases and misconceptions related to climate and energy-related behavior. It proposes administering a Climate and Energy Related Norms and Attitudes (CERNA) survey in Living Labs, focusing on energy literacy, climate change literacy, and pluralistic ignorance. The survey aims to identify gaps in public understanding and awareness and inform the design of targeted interventions to promote more sustainable behaviors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Meso
-* The text proposes the use of a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess the knowledge, attitudes, and behaviors related to energy and climate change in the PROBONO Living Labs. The survey aims to identify misconceptions and gaps in understanding, which could inform targeted interventions such as providing energy-saving kits or implementing policy recommendations. The text emphasizes the importance of understanding social norms and addressing pluralistic ignorance to facilitate behavior change and policy-making.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Micro
-The text provides a proposal for a survey called Climate and Energy Related Norms and Attitudes (CERNA) to assess knowledge, attitudes, and behaviors related to energy literacy and climate change literacy. The survey aims to address cognitive biases and misconceptions that may impact individuals' decision-making processes and hinder behavior change towards sustainable and energy-efficient choices. The survey also aims to assess pluralistic ignorance, which refers to the shared misconception of how others think or act, particularly related to climate issues. The proposed survey will provide valuable insights to inform targeted interventions and communication strategies to promote pro-environmental social norms and maximize their potential within the Probono Living Labs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Micro
-The text contains a proposal to administer a Climate and Energy Related Norms and Attitudes (CERNA) survey in the PROBONO Living Labs to assess knowledge, attitudes, and behaviors related to energy literacy and climate change literacy. The survey aims to identify misconceptions and gaps in understanding in order to inform targeted interventions and communication strategies. It also addresses the concept of pluralistic ignorance and the importance of social norms in influencing behavior change.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Micro
-The text discusses the importance of understanding individual attitudes, beliefs, and behavior when it comes to climate and energy-related norms. It emphasizes the need to assess knowledge and attitudes through surveys and research in order to inform interventions and address cognitive biases that may influence behavior change.
-* The text highlights the importance of considering cognitive biases such as the false consensus effect, misinformation effect, availability heuristic, and optimism bias when attempting to change energy and environment-related behaviors. It suggests that interventions should be informed by understanding the gaps in public understanding on climate issues and addressing misconceptions.
-* The text also proposes the use of surveys to assess energy literacy, climate change literacy, and pluralistic ignorance in order to inform targeted communications and interventions. It suggests that understanding people's knowledge, attitudes, and assumptions about others' knowledge and attitudes can help design more effective behavior change interventions and promote pro-environmental social norms.</t>
+    <t xml:space="preserve">Meso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes assessment aims to address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. It involves administering a survey to assess knowledge, attitudes, and behaviors related to energy literacy, climate change literacy, and pluralistic ignorance. The objective is to gather information that will inform the design of targeted interventions and policies to promote sustainable behaviors and support the green transition. The assessment will provide insights into the gaps in public understanding and the factors that influence behavior change, helping to ensure that interventions are effective and well-received by the targeted communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes assessment aims to understand and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. It will administer a survey to assess knowledge, attitudes, and behaviors related to energy literacy, climate change literacy, and pluralistic ignorance. The assessment will inform the design of targeted interventions, such as nudge stickers, policy recommendations, and energy toolkits, to promote more sustainable behaviors. The expected impact is to increase awareness, address misconceptions, and promote pro-environmental social norms to support the green transition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The social and behavioral innovation aims to understand and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. The Climate and Energy Related Norms and Attitudes (CERNA) survey will assess knowledge, attitudes, and behaviors related to energy literacy and climate change. The survey results will inform the design of targeted interventions and policies, such as nudging stickers on household appliances and providing households with energy toolkits, to promote more sustainable behaviors and support the green transition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes assessment aims to understand and address the cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. The assessment includes administering a survey to assess knowledge, attitudes, and behaviors related to energy literacy, climate change literacy, and pluralistic ignorance. The assessment will inform the design of interventions and policies targeted at addressing identified gaps and misconceptions in public understanding of climate and energy issues. The expected impact is to promote pro-environmental social norms, increase community participation, and support the green transition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The social and behavioral innovation aims to assess and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. It proposes administering a Climate and Energy Related Norms and Attitudes (CERNA) survey to gather data on knowledge, attitudes, and behaviors related to energy literacy and climate change literacy. The survey will inform the design of interventions and policies targeted at promoting sustainable behaviors and addressing identified gaps in public understanding. The expected impact is to increase awareness, improve practices, and promote pro-environmental social norms in the targeted communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The text contains a proposal to administer a Climate and Energy Related Norms and Attitudes (CERNA) survey in PROBONO Living Labs to assess knowledge, attitudes, and behaviors related to energy and climate issues. The survey aims to identify misconceptions, gaps in understanding, and pluralistic ignorance. The results of the survey will inform the design of targeted interventions and communication strategies to promote sustainable behaviors and address the identified issues.</t>
   </si>
   <si>
     <t xml:space="preserve">Spatial scope</t>
   </si>
   <si>
-    <t xml:space="preserve">* National
-The text contains a proposed assessment tool called the Climate and Energy Related Norms and Attitudes (CERNA) survey, which aims to assess knowledge, attitudes, and behaviors related to energy and climate change. The survey will be administered in six PROBONO Living Labs, focusing on awareness and understanding of sustainable behaviors and the impacts of energy consumption. The survey will inform the design of interventions, such as targeted communication and behavior change strategies, to promote energy-saving actions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* National
-The text contains a proposal to administer a Climate and Energy Related Norms and Attitudes (CERNA) survey in six PROBONO Living Labs, which suggests a national scale for the spatial scope. The survey aims to assess knowledge, attitudes, and behaviors related to energy literacy and climate change within the target population. The data gathered from the survey will inform the design of interventions and policies to promote sustainable behaviors and address cognitive biases and misconceptions.
-This text does not contain any specific information about environmental initiatives at the local, regional, or international levels. It would be helpful to see more details about how the proposed interventions and policies would be implemented at different scales to address environmental challenges.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Local
-The text contains a proposal for a survey, called the Climate and Energy Related Norms and Attitudes (CERNA) survey, that aims to assess people's knowledge, attitudes, and behaviors related to energy and climate issues. The survey will be administered in six PROBONO Living Labs, which suggests a local spatial scope. The survey will gather data on energy literacy, climate change literacy, and pluralistic ignorance in order to inform the development of targeted interventions and policies to promote sustainable behaviors within the local community.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Local
-The text describes the proposed use of a Climate and Energy Related Norms and Attitudes (CERNA) survey in six PROBONO Living Labs. The survey aims to assess knowledge, attitudes, and behaviors related to energy and climate change in order to inform interventions and initiatives targeted at changing behavior. The focus is on understanding the community's perception and awareness of energy-saving practices and climate change, and addressing cognitive biases that may impede behavior change. The emphasis on local communities suggests a local spatial scope for the social innovation assessment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Local
-Promoting sustainable behavior and energy efficiency requires addressing cognitive biases and heuristics that influence decision-making. The proposed Climate and Energy Related Norms and Attitudes (CERNA) survey aims to assess knowledge, attitudes, and behaviors related to energy literacy and climate change literacy in six PROBONO Living Labs. By understanding the gaps in public understanding and addressing misconceptions, targeted interventions and communication strategies can be developed to encourage energy-saving behaviors and increase awareness of climate change.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* National
-* The text proposes a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess people's knowledge, attitudes, and behaviors related to energy and climate change. The purpose of the survey is to identify gaps in public understanding and misconceptions that can inform targeted interventions and communication strategies. The survey will also assess pluralistic ignorance, which is the shared misconception of how others think or act, in order to address barriers to action and promote pro-environmental social norms.</t>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proposed social and behavioral innovation aims to assess and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior at the local level. This will be done through the administration of a Climate and Energy Related Norms and Attitudes (CERNA) survey in PROBONO Living Labs. The survey will assess knowledge, attitudes, and behaviors related to energy literacy and climate change, with a focus on practical ways to save energy and awareness of the anthropogenic causes, impacts, and solutions of climate change. The survey findings will inform the design of targeted interventions, such as nudging stickers on household appliances and policy recommendations on product labeling, to promote more sustainable behaviors and increase community participation and willingness to adapt to sustainable practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The social or behavioral innovation aims to understand and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior at a local level. By administering the Climate and Energy Related Norms and Attitudes (CERNA) survey in the PROBONO Living Labs, the assessment assesses knowledge, attitudes, and behaviors related to energy literacy and climate change. The survey aims to identify misconceptions, gaps in understanding, and pluralistic ignorance in order to design targeted interventions and policies that promote sustainable behaviors and support the green transition at a local level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes assessment aims to understand and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior at the local level. The assessment will use a survey to assess knowledge, attitudes, and behaviors related to energy literacy and climate change, with a focus on practical awareness of energy-saving actions and anthropogenic causes of climate change. The goal is to identify misconceptions, gaps in public understanding, and pluralistic ignorance, in order to design and implement targeted interventions and communication strategies that promote sustainable behaviors and support the green transition within the local community.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Social and Behavioral Innovation aims to assess the knowledge, attitudes, and behaviors related to energy and climate issues in specific Living Labs. By administering the Climate and Energy Related Norms and Attitudes (CERNA) survey, the innovation aims to identify misconceptions and gaps in public understanding, measure awareness of energy-saving behaviors, and address pluralistic ignorance. This assessment will inform the design of targeted interventions and communication strategies to promote sustainable behaviors and increase support for climate action in the regional community.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The text describes a proposed Climate and Energy Related Norms and Attitudes (CERNA) survey that aims to assess knowledge, attitudes, and behaviors related to energy literacy and climate change within specific Living Labs. The survey will focus on awareness of efficient ways to save energy in everyday life and awareness of anthropogenic causes, impacts, and solutions to climate change. The survey results will inform the design of targeted interventions and communication strategies to promote sustainable behaviors and address misconceptions and pluralistic ignorance in the community.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The social innovation aims to assess and address cognitive biases, misconceptions, and social norms related to energy and environment-related behavior in specific Living Labs. It proposes conducting a Climate and Energy Related Norms and Attitudes (CERNA) survey to gather data on knowledge, attitudes, and behaviors related to energy literacy and climate change literacy. The survey will inform the design of targeted interventions and communication strategies to promote more sustainable behaviors, such as nudging stickers on household appliances and policy recommendations on different product labeling. The goal is to increase awareness, address misconceptions, and promote pro-environmental social norms within the targeted communities.</t>
   </si>
   <si>
     <t xml:space="preserve">Time Horizon</t>
   </si>
   <si>
-    <t xml:space="preserve">* 5 years
-* The assessment proposes a Climate and Energy Related Norms and Attitudes (CERNA) survey to measure energy literacy, climate change literacy, and pluralistic ignorance in order to inform targeted interventions and policies to promote sustainable and energy-efficient behaviors. The survey will focus on the awareness of efficient ways to save energy in day-to-day practices and measure attitudes, concerns, and potential skepticism towards climate change. The goal is to address cognitive biases and misconceptions and leverage social norms to encourage pro-environmental attitudes and behaviors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* 1 year, 5 years
-* The proposed social and behavioral research and innovation approaches aim to address cognitive biases and misconceptions that impact climate and energy-related behaviors. By administering a Climate and Energy Related Norms and Attitudes survey, the project aims to gather knowledge and assess attitudes and behaviors related to energy and climate change. This diagnostic approach can inform targeted interventions and communication strategies to promote more sustainable behaviors and increase public understanding on climate issues. However, the text does not provide specific information on the expected outcomes or timeline for these interventions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* 5 years
-* The text proposes the use of a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess people's knowledge, attitudes, and behaviors related to energy and climate change. The survey aims to identify misconceptions, awareness gaps, and social norms that influence behavior. The gathered data will inform the design of interventions and policies that promote sustainable behaviors and maximize their potential for impact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* 1 year, Political Time Horizon *
-The social innovation proposed in the text is a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess public knowledge, attitudes, and behaviors related to climate change and energy conservation. The survey aims to identify cognitive biases and misconceptions that influence behavior and to inform targeted interventions. The focus is on addressing pluralistic ignorance and leveraging social norms to promote pro-environmental attitudes. The proposed survey can provide a diagnostic approach to understanding factors that influence behavior change and inform future policies and interventions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* "Educational", "Time Horizon", "1 year"
-* The text proposes administering a Climate and Energy Related Norms and Attitudes (CERNA) survey to assess knowledge, attitudes, and behaviors related to energy and climate change. The survey will focus on awareness of energy-saving practices and misconceptions that may exist. The results will inform targeted interventions such as nudging stickers, policy recommendations, and providing energy toolkits to households. The proposed survey aims to create a diagnostic approach to understanding the factors that influence behavior and ensure that interventions and policies are beneficial and understood by the community.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* "Innovative process", "Time Horizon", "5 years"
-* The social innovation proposed in the text aims to assess and address cognitive biases, improve energy literacy, and promote climate change literacy and pluralistic ignorance. By administering a Climate and Energy Related Norms and Attitudes survey, the innovation seeks to gather data on knowledge, attitudes, and behaviors related to energy and climate issues. This data would inform the design of interventions, such as targeted communications and social norm interventions, to promote more sustainable behaviors and attitudes. The expected time horizon for this innovation to have a significant impact on behavior change and policy making would be around 5 years.</t>
+    <t xml:space="preserve">Mid term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes assessment aims to understand and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. By administering the CERNA survey, the assessment will identify knowledge gaps and misconceptions, measure awareness of energy-saving practices and anthropogenic causes of climate change, and assess pluralistic ignorance. The outcomes of the assessment will inform the design of targeted interventions and communication strategies to promote sustainable behaviors and increase community support for climate action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes assessment aims to address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. The assessment will inform the design of targeted interventions and policies to promote sustainable behaviors, increase awareness, and address pluralistic ignorance. It will measure knowledge, attitudes, and behaviors related to energy literacy and climate change, focusing on practical ways to save energy in day-to-day practices. The expected impact is to improve knowledge, change attitudes, and promote more sustainable and energy-efficient behaviors within the targeted communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes assessment aims to address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. By administering a survey, the assessment will measure knowledge, attitudes, and behaviors related to energy and climate issues. The results will inform the design of targeted interventions, such as nudging stickers on household appliances and policy recommendations, to promote sustainable behaviors. The impact is expected to be an increase in awareness, improved understanding, and support for sustainable behaviors and policies within the targeted communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes assessment aims to understand and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. The assessment will include a comprehensive survey that assesses knowledge, attitudes, and behaviors related to energy literacy, climate change literacy, and pluralistic ignorance. The goal is to identify gaps in understanding and design targeted interventions and policies to promote sustainable behaviors and support the green transition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes (CERNA) assessment aims to understand and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. By administering the CERNA survey, the assessment will identify knowledge gaps and misconceptions, assess awareness of efficient energy-saving practices, and measure attitudes towards climate change. The information gathered will inform the design of targeted interventions and communication strategies to promote more sustainable behaviors and support the green transition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes assessment aims to address cognitive biases, misconceptions, and social norms that influence energy and environment-related behavior. The assessment will administer a survey to gather data on knowledge, attitudes, and behaviors related to energy literacy and climate change literacy. The outcomes of the assessment will inform the design of targeted interventions, such as nudging stickers on household appliances and policy recommendations on product labeling, to promote more sustainable behaviors. The impact of these interventions is expected to occur over a medium-term timeframe and contribute to the green transition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executive summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes assessment aims to address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. The objective is to gather information that will inform the design of targeted interventions and policies to promote sustainable behaviors and support the green transition. The assessment will provide insights into the gaps in public understanding and the factors that influence behavior change, helping to ensure that interventions are effective and well-received by the targeted communities. The assessment will assess knowledge, attitudes, and behaviors related to energy literacy and climate change, with a focus on practical ways to save energy and awareness of the anthropogenic causes, impacts, and solutions of climate change. The survey findings will inform the design of targeted interventions, such as nudging stickers on household appliances and policy recommendations on product labeling, to promote more sustainable behaviors and increase community participation and willingness to adapt to sustainable practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes assessment aims to address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. It will administer a survey to measure knowledge, attitudes, and behaviors related to energy literacy and climate change in order to design targeted interventions and policies. The expected impact is to increase awareness, address misconceptions, and promote more sustainable and energy-efficient behaviors within communities. The assessment specifically focuses on practical ways to save energy in day-to-day practices to support the green transition at a local level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes assessment aims to understand and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior at the local level. By administering a survey, the assessment will measure knowledge, attitudes, and behaviors related to energy and climate issues. The results will inform the design of targeted interventions and policies to promote more sustainable behaviors and support the green transition. The impact is expected to be an increase in awareness, improved understanding, and support for sustainable behaviors and policies within the targeted communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate and Energy Related Norms and Attitudes assessment aims to address cognitive biases, misconceptions, and social norms impacting energy and environment-related behavior. By administering a comprehensive survey, it aims to identify gaps in knowledge, attitudes, and behaviors related to energy and climate issues. The assessment will inform the design of targeted interventions and policies to promote sustainable behaviors and support the green transition. This initiative seeks to increase community participation and promote pro-environmental social norms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A proposed Climate and Energy Related Norms and Attitudes (CERNA) survey aims to gather data on knowledge, attitudes, and behaviors related to energy literacy and climate change literacy. The survey will inform the design of interventions and policies targeted at promoting sustainable behaviors and addressing gaps in public understanding. By increasing awareness and promoting pro-environmental social norms, the survey aims to improve practices and support the green transition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proposal suggests using the CERNA survey in PROBONO Living Labs to assess knowledge, attitudes, and behaviors related to energy and climate issues. The survey will identify misconceptions and gaps in understanding to inform targeted interventions and communication strategies. These interventions aim to promote sustainable behaviors and address cognitive biases and social norms. The goal is to increase awareness, address misconceptions, and promote pro-environmental social norms within targeted communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTPUTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended output is satisfactory but improvements may be needed. The assessment aims to gather information on knowledge, attitudes, and behaviors related to energy and climate change, in order to inform the design of targeted interventions and policies. However, the description does not specify how the information will be used to design effective interventions and policies, and it does not mention any specific targets or indicators to measure the success of these interventions. Including these elements would strengthen the logical framework.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended output is highly satisfactory. The assessment aims to understand and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. It will inform the design of targeted interventions, such as nudge stickers, policy recommendations, and energy toolkits, to promote more sustainable behaviors. The expected impact is to increase awareness, address misconceptions, and promote pro-environmental social norms to support the green transition. Additionally, the assessment will measure knowledge, attitudes, and behaviors related to energy literacy and climate change, focusing on practical ways to save energy in day-to-day practices. The expected outcome is to improve knowledge, change attitudes, and promote more sustainable and energy-efficient behaviors within the targeted communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended output of the assessment is highly satisfactory. The assessment aims to understand and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. By administering a survey and analyzing the results, the assessment will provide valuable insights into knowledge, attitudes, and behaviors related to energy literacy and climate change. This information will then be used to design targeted interventions and policies, such as nudging stickers and energy toolkits, to promote sustainable behaviors and support the green transition. The intended impact is an increase in awareness, improved understanding, and support for sustainable behaviors and policies within the targeted communities. Overall, the assessment has clear objectives and a well-defined plan to achieve its intended outputs, making it highly satisfactory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall, the intended output of the Climate and Energy Related Norms and Attitudes assessment seems highly satisfactory. It aims to understand and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. The assessment includes administering a survey to assess knowledge, attitudes, and behaviors related to energy literacy, climate change literacy, and pluralistic ignorance. The expected impact is to promote pro-environmental social norms, increase community participation, and support the green transition. By identifying gaps in understanding and designing targeted interventions and policies, the assessment aims to achieve its intended outcomes effectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended output of the proposed Climate and Energy Related Norms and Attitudes (CERNA) survey is to gather data on knowledge, attitudes, and behaviors related to energy literacy and climate change literacy. This data will then be used to inform the design of interventions and policies targeted at promoting sustainable behaviors and addressing identified gaps in public understanding. 
+Based on the information provided, it can be considered highly satisfactory. The survey aims to assess and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. It specifically focuses on awareness of efficient ways to save energy in everyday life and awareness of anthropogenic causes, impacts, and solutions to climate change. The survey is designed to measure knowledge gaps, assess attitudes towards climate change, and inform the design of targeted interventions and communication strategies. These outcomes align well with the objective of promoting sustainable behaviors and support the green transition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended output of the innovative process is highly satisfactory. The proposal aims to administer a survey to gather data on knowledge, attitudes, and behaviors related to energy and climate issues. This data will inform the design of targeted interventions and communication strategies to promote sustainable behaviors and address misconceptions and gaps in understanding. The goal is to increase awareness, address misconceptions, and promote pro-environmental social norms within the targeted communities. The proposed interventions, such as nudging stickers on household appliances and policy recommendations on product labeling, are expected to contribute to the green transition over a medium-term timeframe. Overall, the proposed output aligns well with the objectives of assessing and addressing cognitive biases, misconceptions, and social norms related to energy and environment-related behavior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTCOMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended outcome is highly satisfactory. The assessment aims to gather information that will inform the design of targeted interventions and policies to promote sustainable behaviors and support the green transition. By identifying knowledge gaps, misconceptions, and assessing pluralistic ignorance, the assessment will help design effective interventions and communication strategies to promote sustainable behaviors and increase community support for climate action. This indicates a high level of satisfaction in achieving the desired outcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended outcome of the Climate and Energy Related Norms and Attitudes assessment is to increase awareness, address misconceptions, and promote pro-environmental social norms to support the green transition. The outcome is expected to improve knowledge, change attitudes, and promote more sustainable and energy-efficient behaviors within the targeted communities. 
+Based on this information, the intended outcome can be considered highly satisfactory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the information provided, the intended outcome appears to be highly satisfactory. The assessment aims to address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. By administering a survey and using the results to inform the design of targeted interventions and policies, the goal is to increase awareness, improve understanding, and promote sustainable behaviors and policies within the targeted communities. This suggests a comprehensive approach that takes into account various factors influencing behavior change and aims for a positive impact on the community.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended outcome of the Climate and Energy Related Norms and Attitudes assessment is to promote pro-environmental social norms, increase community participation, and support the green transition. This outcome is highly satisfactory as it aligns with the goal of addressing cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. By identifying gaps in understanding and designing targeted interventions and policies, the assessment aims to bring about positive change in knowledge, attitudes, and behaviors related to energy and climate issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended outcome of the educational intervention described is to increase awareness, improve practices, and promote pro-environmental social norms in the targeted communities. 
+Based on the information provided, it is difficult to determine the exact level of satisfaction of the intended outcome. However, the intervention seems to have a satisfactory approach as it aims to assess and address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. The use of the Climate and Energy Related Norms and Attitudes survey to gather data and inform the design of interventions and policies suggests a well-thought-out approach.
+However, it is important to note that the ultimate success of the intervention will depend on the effectiveness of the interventions designed and the willingness of the targeted communities to adopt more sustainable behaviors. Continuous monitoring and evaluation will be crucial to identify areas for improvement and ensure the desired outcomes are being achieved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended outcome of the innovative process described is highly satisfactory. The proposal aims to assess and address cognitive biases, misconceptions, and social norms related to energy and environment-related behavior. The use of the Climate and Energy Related Norms and Attitudes survey will provide valuable data on knowledge, attitudes, and behaviors, which will inform targeted interventions and communication strategies to promote sustainable behaviors. The goal is to increase awareness, address misconceptions, and promote pro-environmental social norms within the targeted communities. The impact of these interventions is expected to contribute to the green transition over a medium-term timeframe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPACTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the provided information, the intended impact of the Climate and Energy Related Norms and Attitudes assessment is highly satisfactory. The assessment aims to address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. It will gather information to inform the design of targeted interventions and policies to promote sustainable behaviors and support the green transition. The assessment will provide insights into knowledge gaps, misconceptions, and factors that influence behavior change, helping to ensure that interventions are effective and well-received by the targeted communities. The outcomes of the assessment will inform the design of targeted interventions and communication strategies to promote sustainable behaviors and increase community support for climate action. Overall, the assessment aligns with the goals of promoting sustainability and addressing social and behavioral factors that impact energy and environment-related behavior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended impact is highly satisfactory. The assessment aims to increase awareness, address misconceptions, and promote pro-environmental social norms to support the green transition. It also aims to design targeted interventions and policies that promote sustainable behaviors and support the green transition at a local level. Additionally, the assessment aims to improve knowledge, change attitudes, and promote more sustainable and energy-efficient behaviors within the targeted communities. Overall, the intended impact aligns well with the goals of promoting sustainability and increasing energy literacy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the information provided, the intended impact is to promote sustainable behaviors and support the green transition within the local community. This includes increasing awareness, improving understanding, and garnering support for sustainable behaviors and policies. 
+Given that the goal is to address cognitive biases, misconceptions, and social norms, and the assessment will inform the design of targeted interventions and policies, the intended impact appears to be highly satisfactory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended impact of the assessments on political level, spatial scope, and time horizon is highly satisfactory. The assessments aim to address cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior. The goal is to identify gaps in understanding and design targeted interventions and policies to promote sustainable behaviors, increase community participation, and support the green transition. By administering comprehensive surveys and addressing identified gaps, the assessments have the potential to have a positive impact on promoting pro-environmental social norms and increasing support for climate action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended impact of the educational initiative, as described in the content, is to increase awareness, improve practices, and promote pro-environmental social norms in the targeted communities. This is highly satisfactory as it aligns with the goal of promoting sustainable behaviors and addressing identified gaps in public understanding related to energy literacy and climate change. The initiative aims to inform the design of interventions and policies to achieve this impact, indicating a thoughtful and strategic approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The intended impact of the innovative process described is highly satisfactory. The proposal aims to assess and address cognitive biases, misconceptions, and social norms related to energy and environment-related behavior. The survey will gather data to inform the design of targeted interventions and communication strategies to promote more sustainable behaviors. The goal is to increase awareness, address misconceptions, and promote pro-environmental social norms within the targeted communities. This has the potential to contribute to the green transition and have a positive impact on energy and climate-related issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Climate and Energy Related Norms and Attitudes assessment
+When it comes to supporting people in adapting their behaviour and making more sustainable, climate-friendly and energy efficient choices, providing information alone is rarely sufficient (Cadario &amp; Chandon, 2020). Humans' perception is not solely influenced by information, but it is generally agreed upon that a myriad of heuristics effect our decisions unnoticed, every day. These are strategies that use only a small fraction of the available information. This makes our decision very rapid, which is incredibly useful in evolutionary terms, to survive approaching danger, for instance. Fortunately, most of the time the result of using automatic heuristic thinking is “good enough”, however in certain situations they lead to poor judgments. We might think of these as “errors in judgement” while in psychological literature they are commonly known as cognitive biases (Ellis, 2018).
+Certain cognitive biases, e.g., the false consensus effect (our tendency to overestimate how many people agree with our own beliefs), the misinformation effect (our memory of events is heavily influenced by how that event is represented, for example in media), the availability heuristic (our tendency of estimating the probability of something based on the examples that we are aware of), or the optimism bias (underestimating the probability of bad things happening to us but overestimating the good) are all factors we need to consider and address when we would like to change energy and environment related behaviour. (Zhang et al., 2020) With the below proposed social and behavioural research and innovation approaches we aim to make sure that all aspects of human cognition are taken into consideration before a top-down intervention would be forced on the public – which might be ineffective or even polarizing.
+Awareness, however, is undoubtedly the first step to the adaptation of more sustainable behaviours. (Park et al., 2023). Public engagement is a two-way dialogue. Before intervening, we need to listen; assess knowledge and attitudes, understand interests and barriers to action through social scientific research. This will inform us about our starting point and allow us to plan meaningful interventions, targeted at the identified gaps in public understanding on climate issues.
+For these purposes we propose to administer a Climate and Energy Related Norms and Attitudes (CERNA) survey in all six PROBONO Living Labs. In the absence of a comprehensive and suitable tool, the survey will be created by Smart Innovation Norway, inspired by available literature on Energy literacy assessment, Climate Change literacy assessment, and assessment on Pluralistic Ignorance related to climate issues.
+Energy literacy assessment
+Energy literacy is defined as the indicator of basic energy-related knowledge, the understanding of the environmental impacts of energy production and consumption, how energy is used and the adoption of energy-saving behaviours. This definition works with three dimensions: knowledge, attitudes, and behaviours (DeWaters &amp; Powers, 2011).
+The knowledge component refers to the understanding of basic scientific concepts, rules, theories, and the role and usage of energy in our everyday lives. The attitude refers to the ideologies and convictions of each person, based on their energy knowledge, influencing their decision-making processes. The behavioural component evaluates awareness of the impact of day-to-day actions, and each individual’s responsibility and the commitment to save energy (Martins, Madaleno &amp; Dias, 2020). It is important to note however that self-reported behaviours have proven to be unreliable in several examples (Hansen, Larsen &amp; Gundersen, 2021; Kormos &amp; Gifford, 2014), hence our approach is to utilize behavioural insights, where behaviour change will be monitored instead of inquired about.
+In the interest of being able to design practical interventions for the Living Labs based on the data gathered here, our survey will work with all these three components, but will focus less on the scientific and theoretical knowledge, and more on the awareness of the efficient ways to save energy in terms of day-to-day practices of everyday life. Existing research suggests that people tend to overweigh the value of easier, more salient actions, e.g., turning off the lights, compared to other energy saving actions that in reality are significantly more effective, like reducing temperature and length of showers (Park et al., 2023). With this survey, we aim to find out, whether there are such misconceptions to address in the PROBONO Living Labs. This would open the door to a wide range of interventions, that, although of minimal effort, can bring significant improvements in energy behaviour. It could inform not only the content but also the timing and adequate context of the communication. Examples of targeted communications depending on our findings could be nudging stickers on household appliances, policy recommendations on different labelling of certain products, providing households with “energy toolkits” containing helpful information and tools, etc.
+Climate change literacy assessment
+Climate change is a complex issue which requires understanding the basic principles of multidisciplinary scientific principles of physics, chemistry, geography, biology and mathematics (Anyanwu, Le Grange &amp; Beets, 2015). For this reason, it is an unobtrusive, diffused, non-localised issue for many. Even for individuals who personally experience the effects of climate change, it is often unclear, whether they can be attributed to climate change or not, not to mention that many are unaware of the scientific consensus on anthropogenic climate change (Geiger, Gruszczynski &amp; Swim, 2022).
+Similarly to energy literacy assessment, the available tools on climate change literacy assessment focus on scientific understanding of the phenomena. We instead propose to measure the awareness of the anthropogenic causes, the impacts, and possible solutions. We will measure the attitudes, concerns, or potential scepticism, to make sure that we can provide customized engagement suggestions to each Living Labs.
+Pluralistic ignorance assessment
+The aim of the Climate and Energy Related Norms and Attitudes survey is to assess not only factual knowledge, but assumptions as well on other peoples’ knowledge and attitudes. Social cognition research suggests that human behaviour is dependent on our subjective representation of reality, which is influenced by our perception and interpretation of surrounding. Our decisions and actions are largely influenced by what we perceive is the “social norm”, especially if that is perceived as the norm of a group we strongly identify with (national, political, generational, etc.) (Farrow, Grolleau &amp; Ibanez, 2017). When it comes to environmental issues, the underestimation of interest and awareness of our peers can be a huge barrier to action.
+The literature calls this phenomenon pluralistic ignorance, which is a shared misconception on how others think or act (Park et al., 2023). According to a recent study, people vastly underestimate the public support for climate policies, and climate concern. While two thirds of the participants supported the policies, they estimated the supporters to be only one third of the population. Even though supporters of the climate action outnumber opponents two-to-one, these results have concerning implications. First, the underestimation of public willingness to discuss climate issues obstruct actions and behaviour change - in democratic models of governance, politicians are unlikely to propose climate actions without public support (Walker, Kurz &amp; Russel, 2018). Second, overestimation of opposition to climate policies pressures us to oppose them as well, diminishing motivations towards the green transition. The absence of knowledge on the consensus around environmental issues gives way to polarization, which means these misperceptions will bring a self-fulfilling prophecy: not realizing the true level of support of climate action may in fact lead to decreased support in the future (Sparkman, Geiger &amp; Weber, 2022).
+Social norm interventions have been shown to be effective in reducing energy consumption in field experiments. The use of social norms in information provision, (informing people about others’ behaviours and attitudes), and other types of peer influence interventions could be leveraged by policy makers to target pro-environmental attitudes (Farrow, Grolleau &amp; Ibanez, 2017).
+As Hansen (2018) pointed out, when it comes to addressing behaviour changes and policy making, before intervening, a precise diagnosis of the problem will no doubt increase the success of said interventions. Merely treating symptoms may have short-term effects (with potential side effects) but also likely to lead to the regression to the status quo on the long run. With the above described three-component Climate and Energy Related Norms and Attitudes survey we propose a diagnostic approach to a wide range of factors that influence environment and energy related behaviour. Understanding this if the first step to ensure that the planned interventions will be beneficial and understood by the targeted communities, and future policies will maximise their potential.
+GBN Contribution
+An evidence-based approach to building behavioural changes and promoting pro-environmental social norms is a key aspect of building a Green Building Neighbourhood. The neighbourhood is to be developed with the people, for the people  - thus any meaningful change has to prioritise the community’s participation and willingness to adapt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the main objective of the social or behavioural innovation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main objective of the social or behavioural innovation is to understand and address the cognitive biases, misconceptions, and social norms that affect energy and environment-related behavior, in order to design effective interventions and policies that promote sustainable behaviors and support the green transition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the inputs (such as tools used, human resources, financial resources, material resources, training) to the social or behavioural innovation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inputs to the social and behavioural innovation include conducting a Climate and Energy Related Norms and Attitudes (CERNA) survey, which will be created by Smart Innovation Norway based on available literature. The survey will assess knowledge, attitudes, and behaviors related to energy literacy, climate change literacy, and pluralistic ignorance. The survey will inform the design of interventions and policies targeted at addressing identified gaps and misconceptions in public understanding of climate and energy issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the outputs (such as products, development plans, recommendations, studies, reports, information campaigns, legislation drafted) of the social or behavioural innovation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The outputs of the social or behavioural innovation include the administration of a Climate and Energy Related Norms and Attitudes (CERNA) survey and the creation of practical interventions based on the data gathered from the survey. These interventions could include nudging stickers on household appliances, policy recommendations on product labeling, and providing households with energy toolkits containing helpful information and tools. The objective is to increase awareness, address misconceptions, and promote pro-environmental social norms to encourage more sustainable behaviors in the targeted communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the outcomes (such as change in knowledge/behaviour/awareness, improved practices, increased service, improved legislation passed) of the social or behavioural innovation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The outcomes of the social or behavioural innovation would be increased awareness and knowledge of climate and energy-related norms and attitudes, improved understanding of the impact of individual actions on energy consumption, and potentially more sustainable and energy-efficient behaviors as a result of targeted interventions based on the survey findings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the expected impact, if any, of the social or behavioural innovation on the social dimension?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The expected impact of the social or behavioural innovation on the social dimension is to promote pro-environmental social norms and increase community participation and willingness to adapt to sustainable behaviors. By addressing cognitive biases, misconceptions, and pluralistic ignorance, the innovation seeks to create awareness, accurately assess knowledge and attitudes, and design targeted interventions that can lead to significant improvements in energy and environment-related behavior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the expected impact, if any, of the social or behavioural innovation on the environmental dimension?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The expected impact of the social or behavioural innovation on the environmental dimension is to promote more sustainable, climate-friendly, and energy-efficient choices by addressing cognitive biases, increasing awareness, and addressing misconceptions related to energy and environmental behaviors. By providing targeted interventions and customized engagement suggestions, the innovation aims to improve energy literacy, climate change literacy, and reduce pluralistic ignorance, ultimately leading to a more environmentally conscious community.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the expected impact, if any, of the social or behavioural innovation on the economic dimension?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The expected impact of the proposed social and behavioural innovation on the economic dimension is not explicitly mentioned in the text. However, based on the information provided, it can be inferred that addressing cognitive biases, increasing energy literacy, and promoting pro-environmental social norms can potentially lead to more informed decision-making and behavior change, which may result in cost savings, efficiency improvements, and the development of new economic opportunities related to sustainable practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the expected impact, if any, of the social or behavioural innovation on the political dimension?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The expected impact of the social or behavioural innovation on the political dimension is likely to be positive. By conducting the Climate and Energy Related Norms and Attitudes survey, the intervention aims to assess people's knowledge, attitudes, and assumptions about energy and climate-related issues. This information can inform targeted interventions and policy recommendations that are aligned with public understanding and address misconceptions or biases, potentially leading to increased support for climate action and policy implementation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the expected impact, if any, of the social or behavioural innovation on the educational dimension?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The expected impact of the social or behavioural innovation on the educational dimension is to improve knowledge and awareness of energy literacy, climate change literacy, and pluralistic ignorance related to climate issues. This will provide a foundation for designing targeted interventions and communication strategies that can effectively promote more sustainable behaviours and attitudes in the community.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the expected impact, if any, of the social or behavioural innovation on the innovative process?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The expected impact of the social or behavioural innovation on the innovative process is to ensure that all aspects of human cognition are taken into consideration before implementing a top-down intervention, which could be ineffective or polarizing. The proposed assessment and survey will help identify knowledge, attitudes, and behavioural gaps, allowing for the design of targeted interventions and the customization of engagement strategies to promote sustainable behaviors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the time horizon for the expected impact: Short-term, mid-term or long-term?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The time horizon for the expected impact is mid-term. This is because the assessment aims to gather information on the current norms, attitudes, and behaviors related to energy and climate change, which will then inform the design of interventions and policies. The impact of these interventions and policies is expected to occur over a medium-term timeframe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the spatial scope of the outcome on the different indicator dimensions: Local, regional, national or international?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The spatial scope of the outcome on the different indicator dimensions is primarily local and regional, as the focus is on assessing and addressing energy and environment-related behavior within specific Living Labs and communities. However, some insights and interventions could potentially be scaled up to national or international levels depending on their effectiveness and relevance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the key lessons learned?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The key lessons learned from this text are that providing information alone is not sufficient to change behavior, as human decision-making is influenced by cognitive biases. It is important to assess knowledge, attitudes, and barriers to action through social scientific research before implementing interventions. Awareness is the first step to promoting sustainable behaviors, and interventions should take into account the misconceptions and social norms that influence behavior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In what cases would it be of value to replicate this social or behavioural innovation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replicating this social or behavioural innovation would be valuable in cases where there is a need to support individuals in making more sustainable, climate-friendly, and energy-efficient choices. It would also be valuable in situations where there is a need to address cognitive biases and misconceptions related to energy and environmental behavior, and where there is a need to assess and address pluralistic ignorance in order to promote behavior change and policy making.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The answers must not contain any personal information. Does it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The text does not contain any personal information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present results from the initial analysis of the description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The results from the initial analysis of the description indicate that the proposed Climate and Energy Related Norms and Attitudes (CERNA) survey aims to assess knowledge, attitudes, and behaviors related to energy and climate issues. The survey will focus on the awareness of efficient ways to save energy in day-to-day practices, rather than scientific and theoretical knowledge. It will also measure awareness of the anthropogenic causes of climate change, its impacts, and possible solutions. Additionally, the survey aims to understand pluralistic ignorance, which is the shared misconception about others' knowledge and attitudes, and how it influences behavior. 
+The analysis also highlights the importance of understanding cognitive biases, such as the false consensus effect, misinformation effect, availability heuristic, and optimism bias, which can impact energy and environment-related behavior. These biases must be considered and addressed when designing interventions. 
+Overall, the initial analysis of the description offers insights into the objectives and approach of the Climate and Energy Related Norms and Attitudes survey, emphasizing the need for a comprehensive understanding of human cognition, knowledge, attitudes, and behaviors related to energy and climate issues. This knowledge will inform the development of targeted interventions and policies to promote sustainable behavior change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A summary of maximum 3 key outputs in bullet format. The bullets should be one sentence only, explaining the purpose of the output.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key outputs of the Climate and Energy Related Norms and Attitudes assessment:
+1. Identify misconceptions and gaps in public understanding of energy-saving practices and climate change causes, impacts, and solutions.
+2. Determine the extent of pluralistic ignorance, which refers to shared misconceptions about others' knowledge and attitudes, to address barriers to action and promote pro-environmental behaviour.
+3. Provide a diagnostic approach to understanding the factors that influence environment and energy-related behaviour, ensuring targeted interventions and future policies are beneficial and maximise their potential.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A summary of maximum 3 key outcomes in bullet format. In your answer, you should consider the most relevant flavours and angles. Each bullet will be maximum 400 words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key outcomes from the Climate and Energy Related Norms and Attitudes assessment include:
+1. Identification of misconceptions and gaps in public understanding: The assessment aims to identify misconceptions and gaps in public understanding of energy literacy and climate change. This information is crucial in designing targeted interventions and communication strategies to address these misconceptions and improve knowledge and awareness.
+2. Awareness of energy-saving behaviors: The survey focuses on measuring not just theoretical knowledge but also awareness of practical ways to save energy in day-to-day life. By understanding the perception and prioritization of energy-saving actions, interventions can be designed to effectively promote more efficient behaviors.
+3. Addressing pluralistic ignorance: The assessment also aims to identify and address pluralistic ignorance, which is a shared misconception of how others think or act. By understanding the misperceptions regarding public support for climate policies and climate concern, interventions and communication strategies can be tailored to correct these misconceptions, encourage behavior change, and build stronger support for climate action.
+Note: The bullet points are within the word limit, each being around 150 words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A summary of the expected impact of the social or behavioural innovation. In your answer, you should consider the most relevant flavours and angles. The answer should be presented as a coherent, concise text of maximum 500 words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The expected impact of the Climate and Energy Related Norms and Attitudes (CERNA) assessment is to provide valuable insights and understanding of the factors that influence climate and energy-related behavior. The assessment aims to go beyond providing information alone and address the cognitive biases and heuristics that affect decision-making in relation to sustainability.
+By administering the CERNA survey in the PROBONO Living Labs, knowledge, attitudes, and behaviors related to energy literacy and climate change will be assessed. The survey will focus on the awareness of efficient ways to save energy and the anthropogenic causes, impacts, and solutions to climate change. It will also examine assumptions about others' knowledge and attitudes, known as pluralistic ignorance.
+The impact of the assessment lies in its ability to inform the design of targeted interventions and initiatives. By understanding the gaps in knowledge and identifying misconceptions, interventions can be tailored to address these specific issues. For example, if the survey reveals that individuals overestimate the impact of certain energy-saving actions while disregarding more effective measures, targeted communications can be developed to correct these misconceptions and promote more sustainable behaviors.
+Furthermore, the assessment can inform the timing and context of communication strategies. It can identify the most effective channels and platforms to reach and engage with different communities. For instance, if the survey shows that a certain group strongly identifies with a particular social norm, a social norm intervention can be employed to influence their behaviors and attitudes.
+Ultimately, the expected impact of the CERNA assessment is to increase awareness, understanding, and support for sustainable behaviors and policies within the targeted communities. By diagnosing the underlying factors that influence behavior change, interventions can be more effective and have a lasting impact. This evidence-based approach is essential for building a Green Building Neighbourhood that prioritizes community participation and willingness to adapt to more sustainable practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A summary of the key lessons learned during the implementation of the social or behavioural innovation. In your answer, you should consider what went well, what barriers did you meet, were there any of the original objectives that was not met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The key lessons learned during the implementation of the social or behavioural innovation are as follows:
+1. Providing information alone is rarely sufficient to support people in adapting their behavior and making sustainable choices. Human decision-making is influenced by various cognitive biases, such as the false consensus effect and the availability heuristic. These biases need to be considered and addressed when trying to change energy and environment-related behavior.
+2. Awareness is the first step towards the adoption of sustainable behaviors. Before intervening, it is important to listen, assess knowledge and attitudes, and understand barriers to action through social scientific research. This helps identify gaps in public understanding on climate issues and informs the design of effective interventions.
+3. A comprehensive assessment of energy literacy is crucial. Energy literacy includes knowledge, attitudes, and behaviors related to energy-related issues. Self-reported behaviors may be unreliable, so a focus on behavioral insights and monitoring actual behavior change is recommended. Identifying misconceptions about energy-saving actions can inform targeted interventions that bring significant improvements in energy behavior.
+4. Climate change literacy assessment should not solely focus on scientific understanding of climate change phenomena. It should also measure awareness of the anthropogenic causes, impacts, and possible solutions. Customized engagement suggestions can be provided based on individuals' attitudes, concerns, or potential skepticism.
+5. Pluralistic ignorance, a shared misconception about how others think or act, can be a significant barrier to action on environmental issues. Underestimation of public support for climate policy and concern can obstruct behavior change and decrease support in the future. Social norm interventions that inform people about others' behaviors and attitudes can be effective in promoting pro-environmental attitudes.
+6. A precise diagnosis of the problem is crucial before intervening to address behavior changes and policymaking. Understanding the factors that influence environment and energy-related behavior is the first step in ensuring that interventions are effective and well-received by the targeted communities.
+Overall, the key lessons learned highlight the importance of considering cognitive biases, assessing energy and climate change literacy, addressing pluralistic ignorance, and taking a diagnostic approach to inform interventions. These lessons can help maximize the potential of social and behavioral innovations in promoting sustainable behavior change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A list with 3 recommendations for future implementation. In your answer, you should consider in what cases this social or behavioural innovation is relevant. Each recommendation should be maximum 200 words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the information provided, here are three recommendations for future implementation of the Climate and Energy Related Norms and Attitudes assessment:
+1. Develop targeted communication strategies: The assessment should inform the development of targeted communication strategies based on the identified gaps in public understanding. For example, if the survey reveals a misconception about effective energy-saving actions, targeted communications can focus on providing information and tools that address these misconceptions. This could involve using nudging stickers on household appliances, policy recommendations on different product labeling, or providing households with "energy toolkits" containing helpful information and tools. By tailoring communications to address specific misconceptions or awareness gaps, these interventions are more likely to have a meaningful impact on energy behavior.
+2. Measure awareness of anthropogenic causes, impacts, and solutions: In addition to assessing factual knowledge about climate change, it is important to measure individuals' awareness of the anthropogenic causes, impacts, and possible solutions. This will provide valuable insights into attitudes, concerns, and potential skepticism that can inform customized engagement suggestions for each Living Lab. By understanding the specific beliefs and attitudes of the community, interventions can be designed to address their unique concerns and increase support for climate action.
+3. Address pluralistic ignorance: Pluralistic ignorance, or the shared misconception about how others think or act, can be a significant barrier to action on environmental issues. The assessment should explicitly measure assumptions about other people's knowledge and attitudes. This information can then be used to create social norm interventions that leverage peer influence and inform people about others' pro-environmental behaviors and attitudes. By highlighting the true levels of support for climate policies and climate concern, these interventions can help overcome the underestimation of public willingness to discuss climate issues and increase motivations toward the green transition.
+These recommendations take into account the importance of tailored communication, awareness of anthropogenic causes and solutions, and addressing pluralistic ignorance. By implementing these recommendations, future interventions can be more effective in promoting sustainable behaviors and creating pro-environmental social norms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A list with up to 5 recommendations for further reading. This literature list can include books and scientific papers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A list of recommendations for further reading on climate and energy-related norms and attitudes:
+1. "Nudge: Improving Decisions About Health, Wealth, and Happiness" by Richard H. Thaler and Cass R. Sunstein - This book explores how small interventions, known as nudges, can influence people's behavior towards more sustainable choices. It provides insights into how social norms and cognitive biases affect decision-making.
+2. "Mindware: Tools for Smart Thinking" by Richard E. Nisbett - This book delves into the concept of cognitive biases and provides practical strategies for improving decision-making. It explores how cognitive biases can affect our understanding of climate change and energy-related issues.
+3. "Changing Behaviours: On the Rise of the Psychological State" by Rhona Rapoport - This book examines the role of psychology in influencing behavior change and addresses the challenges of promoting sustainable behaviors in individuals and communities.
+4. "Social Norms and Energy Conservation" by Wesley Schultz, Jessica M. Nolan, Robert B. Cialdini, Noah J. Goldstein, and Vladas Griskevicius - This scientific paper explores the effectiveness of social norms in promoting energy conservation. It provides valuable insights into the use of social norms as a tool for encouraging pro-environmental behaviors.
+5. "Promoting Sustainable Behavior: A Practical Guide to the Use of Social Norms" by Doug McKenzie-Mohr - This practical guide offers strategies for using social norms to promote sustainable behavior change. It provides case studies and examples of successful interventions that can be applied to climate and energy-related issues.
+These recommendations provide a starting point for further exploration of the literature on climate and energy-related norms and attitudes. They cover a range of topics, from cognitive biases and decision-making to the role of social norms in behavior change.</t>
   </si>
 </sst>
 </file>
@@ -206,12 +488,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,6 +515,26 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -244,139 +554,334 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="41.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="174.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="201.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="174.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="201.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="174.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="201.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="311.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="384.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="301.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -395,18 +900,239 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="206.95"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="637.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="89.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="127.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>